--- a/report/バッチ_テスト結果.xlsx
+++ b/report/バッチ_テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5438D97-74F8-4D08-B5D7-41852B72C703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01545A13-4713-44C6-84CB-5A59A025778B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,31 +11,31 @@
     <sheet name="前提条件" sheetId="2" r:id="rId1"/>
     <sheet name="ケース1" sheetId="1" r:id="rId2"/>
     <sheet name="ケース2～4" sheetId="4" r:id="rId3"/>
-    <sheet name="ケース5～15" sheetId="5" r:id="rId4"/>
-    <sheet name="ケース16～23" sheetId="6" r:id="rId5"/>
-    <sheet name="ケース24～29" sheetId="7" r:id="rId6"/>
-    <sheet name="ケース30～35" sheetId="8" r:id="rId7"/>
-    <sheet name="ケース36～41" sheetId="9" r:id="rId8"/>
-    <sheet name="ケース42～47" sheetId="10" r:id="rId9"/>
-    <sheet name="ケース48～53" sheetId="11" r:id="rId10"/>
-    <sheet name="ケース54～59" sheetId="12" r:id="rId11"/>
-    <sheet name="ケース60～63" sheetId="13" r:id="rId12"/>
-    <sheet name="ケース64" sheetId="14" r:id="rId13"/>
-    <sheet name="ケース65～66" sheetId="15" r:id="rId14"/>
-    <sheet name="ケース67～68" sheetId="16" r:id="rId15"/>
-    <sheet name="ケース69～70" sheetId="17" r:id="rId16"/>
-    <sheet name="ケース71" sheetId="18" r:id="rId17"/>
-    <sheet name="ケース72～73" sheetId="19" r:id="rId18"/>
-    <sheet name="ケース74～75" sheetId="20" r:id="rId19"/>
-    <sheet name="ケース76～77" sheetId="21" r:id="rId20"/>
-    <sheet name="ケース78" sheetId="22" r:id="rId21"/>
+    <sheet name="ケース5～16" sheetId="5" r:id="rId4"/>
+    <sheet name="ケース17～24" sheetId="6" r:id="rId5"/>
+    <sheet name="ケース25～30" sheetId="7" r:id="rId6"/>
+    <sheet name="ケース31～36" sheetId="8" r:id="rId7"/>
+    <sheet name="ケース37～42" sheetId="9" r:id="rId8"/>
+    <sheet name="ケース43～48" sheetId="10" r:id="rId9"/>
+    <sheet name="ケース49～54" sheetId="11" r:id="rId10"/>
+    <sheet name="ケース55～60" sheetId="12" r:id="rId11"/>
+    <sheet name="ケース61～64" sheetId="13" r:id="rId12"/>
+    <sheet name="ケース65" sheetId="14" r:id="rId13"/>
+    <sheet name="ケース66～67" sheetId="15" r:id="rId14"/>
+    <sheet name="ケース68～69" sheetId="16" r:id="rId15"/>
+    <sheet name="ケース70～71" sheetId="17" r:id="rId16"/>
+    <sheet name="ケース72" sheetId="18" r:id="rId17"/>
+    <sheet name="ケース73～74" sheetId="19" r:id="rId18"/>
+    <sheet name="ケース75～76" sheetId="20" r:id="rId19"/>
+    <sheet name="ケース77～78" sheetId="21" r:id="rId20"/>
+    <sheet name="ケース79" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>　前提条件</t>
     <rPh sb="1" eb="3">
@@ -931,6 +931,13 @@
   </si>
   <si>
     <t>確認内容：ログに「コマンドライン引数の入力値が不正です。」と表示されること。</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容：DBの請求データ.請求総額に請求金額×(1+消費税率)が登録されていること。</t>
     <rPh sb="0" eb="4">
       <t>カクニンナイヨウ</t>
     </rPh>
@@ -7204,13 +7211,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>14</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>462989</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>67950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7248,13 +7255,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>371457</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>126450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7291,13 +7298,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>162450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7334,13 +7341,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7400,13 +7407,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7466,13 +7473,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>18</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>122205</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>126450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7510,13 +7517,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7576,13 +7583,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7642,13 +7649,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7708,13 +7715,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7774,13 +7781,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161939</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590564</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12154,7 +12161,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC404E14-CAF7-4137-9871-EF8EBF43B578}">
-  <dimension ref="A2:A13"/>
+  <dimension ref="A2:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12220,10 +12227,16 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12489,6 +12502,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -12646,22 +12674,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12677,21 +12707,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>